--- a/biology/Botanique/Square_Jacques-Bidault/Square_Jacques-Bidault.xlsx
+++ b/biology/Botanique/Square_Jacques-Bidault/Square_Jacques-Bidault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Jacques-Bidault est un petit espace vert du 2e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est encadré par la rue de la Lune au sud et la rue Notre-Dame-de-Bonne-Nouvelle à l'ouest. Il jouxte des limites de parcelles sur ses deux autres dimensions. Il fait face à l'église Notre-Dame-de-Bonne-Nouvelle.
 Ce site est desservi par les lignes 8 et 9 à la station de métro Bonne-Nouvelle.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square rend hommage à Jacques Bidault, secrétaire général de la mairie du 2e arrondissement, résistant, arrêté en 1943, déporté au camp de Neuengamme, ou il meurt le 4 décembre 1944.
 </t>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est créé en 1966 après la destruction les nos 2, 4 et 8 de la rue Notre-Dame-de-Bonne-Nouvelle et des nos 18-20 de la rue de la Lune. Ces immeubles avaient été construits sur l'enceinte des Fossés Jaunes que Louis XIV avait fait raser en 1636 pour créer une promenade, appelée « Nouveau-Cours », qui est l'ancêtre de nos Grands Boulevards d'abord appelés « boulevards du Midi » .
-Il s'étend sur 362 m2. En 2007, il a obtenu le label « espaces verts écologiques » décerné par ÉCOCERT[1].
+Il s'étend sur 362 m2. En 2007, il a obtenu le label « espaces verts écologiques » décerné par ÉCOCERT.
 </t>
         </is>
       </c>
